--- a/db/queries/predicted/SBODemoUS-Banking-N2-N2-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/SBODemoUS-Banking-N2-N2-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -502,16 +497,11 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tab_naturalness_modifier</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -574,14 +564,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'recontype'}, {'table source item': '1'}, {'table': 'oitr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -646,14 +631,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'payeename'}, {'select element': '1'}, {'column': 'payeezip'}, {'select element': '1'}, {'column': 'payeecity'}, {'select element': '1'}, {'column': 'payeestree'}, {'select element': '1'}, {'column': 'paycountry'}, {'select element': '1'}, {'column': 'payeestate'}, {'table source item': '1'}, {'table': 'oudp'}, {'join': '1'}, {'table source item': '1'}, {'table': 'opex'}, {'predicate': '1'}, {'column': 'code'}, {'column': 'department'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -717,14 +697,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'acctnum'}, {'table source item': '1'}, {'table': 'ocho'}, {'join': '1'}, {'table source item': '1'}, {'table': 'cho1'}, {'predicate': '1'}, {'column': 'checkkey'}, {'column': 'checkkey'}, {'group by': '1'}, {'column': 'acctnum'}, {'group by': '1'}, {'column': 'checkkey'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -789,14 +764,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'deduction'}, {'select element': '1'}, {'column': 'ddctprcnt'}, {'table source item': '1'}, {'table': 'ocho'}, {'where': '1'}, {'predicate': '1'}, {'column': 'acctnum'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -861,14 +831,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cardcode'}, {'select element': '1'}, {'column': 'cardname'}, {'select element': '1'}, {'column': 'address'}, {'select element': '1'}, {'column': 'trsfrsumfc'}, {'table source item': '1'}, {'table': 'orct'}, {'where': '1'}, {'predicate': '1'}, {'column': 'date'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -933,14 +898,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'wtonhldpst'}, {'select element': '1'}, {'column': 'acctnum'}, {'select element': '1'}, {'column': 'checksumfc'}, {'table source item': '1'}, {'table': 'orct'}, {'join': '1'}, {'table source item': '1'}, {'table': 'rct1'}, {'predicate': '1'}, {'column': 'docnum'}, {'column': 'docnum'}, {'where': '1'}, {'predicate': '1'}, {'column': 'countrycod'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1004,14 +964,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'rct2'}, {'where': '1'}, {'predicate': '1'}, {'column': 'vatapplied'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1075,14 +1030,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'firstsum'}, {'table source item': '1'}, {'table': 'orct'}, {'join': '1'}, {'table source item': '1'}, {'table': 'rct3'}, {'predicate': '1'}, {'column': 'docnum'}, {'column': 'docnum'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1147,14 +1097,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'rctabs'}, {'select element': '1'}, {'column': 'depnum'}, {'select element': '1'}, {'column': 'cardcode'}, {'table source item': '1'}, {'table': 'ocrh'}, {'where': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1216,11 +1161,6 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>N2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'extradays'}, {'select element': '1'}, {'column': 'instnum'}, {'select element': '1'}, {'column': 'vatfirst'}, {'table source item': '1'}, {'table': 'octg'}, {'where': '1'}, {'predicate': '1'}, {'column': 'pymntgroup'}]</t>
         </is>
       </c>
     </row>
